--- a/app/projet/src/main/resources/app/Tableur.xlsx
+++ b/app/projet/src/main/resources/app/Tableur.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nadir\Desktop\2024_2025\S1\GL\Projet\Syllogism\app\projet\src\main\resources\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0DCB9DB-D121-4CDC-B52E-868E6111807C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD612CDE-8047-4741-B781-A8C9228697DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -386,8 +386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75DF87F3-69BE-4A64-BC3C-68D3122079E6}">
   <dimension ref="A1:O256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A239" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6437,7 +6437,7 @@
         <v>1</v>
       </c>
       <c r="J129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K129" t="b">
         <v>0</v>
@@ -7941,7 +7941,7 @@
         <v>1</v>
       </c>
       <c r="J161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K161" t="b">
         <v>0</v>
@@ -9445,7 +9445,7 @@
         <v>1</v>
       </c>
       <c r="J193" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K193" t="b">
         <v>0</v>
@@ -10949,7 +10949,7 @@
         <v>1</v>
       </c>
       <c r="J225" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K225" t="b">
         <v>0</v>
@@ -12430,6 +12430,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="8769bae9-3463-4a10-a579-45503be70aed" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8dfbc409-28c6-489e-afb0-89cc2b931f2a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008CB9B2C0AF3CE84CB4250F7CDCA74D24" ma:contentTypeVersion="11" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="2f42a97d5ab0c3bd2930341450d6f06b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8dfbc409-28c6-489e-afb0-89cc2b931f2a" xmlns:ns3="8769bae9-3463-4a10-a579-45503be70aed" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbd40f3811e35be07f3bce4a65cfcd28" ns2:_="" ns3:_="">
     <xsd:import namespace="8dfbc409-28c6-489e-afb0-89cc2b931f2a"/>
@@ -12624,27 +12644,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AFBD511E-5C1D-4223-BB26-D22E6EE722D3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8769bae9-3463-4a10-a579-45503be70aed"/>
+    <ds:schemaRef ds:uri="8dfbc409-28c6-489e-afb0-89cc2b931f2a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="8769bae9-3463-4a10-a579-45503be70aed" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8dfbc409-28c6-489e-afb0-89cc2b931f2a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE0CAF50-C050-48AE-875E-A3DE6E22B7B5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE972C20-CF49-42CA-B59D-0D1129D9A052}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12661,23 +12680,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE0CAF50-C050-48AE-875E-A3DE6E22B7B5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AFBD511E-5C1D-4223-BB26-D22E6EE722D3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8769bae9-3463-4a10-a579-45503be70aed"/>
-    <ds:schemaRef ds:uri="8dfbc409-28c6-489e-afb0-89cc2b931f2a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/app/projet/src/main/resources/app/Tableur.xlsx
+++ b/app/projet/src/main/resources/app/Tableur.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nadir\Desktop\2024_2025\S1\GL\Projet\Syllogism\app\projet\src\main\resources\app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://etuunivpoitiersfr-my.sharepoint.com/personal/nathanael_maitrehenry_etu_univ-poitiers_fr/Documents/Documents Fac/fac/M1/GL/Syllogism/app/projet/src/main/resources/app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD612CDE-8047-4741-B781-A8C9228697DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{AD612CDE-8047-4741-B781-A8C9228697DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5CCA85E1-0504-4403-8794-A6CFC0CE5FBA}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="705" windowWidth="28020" windowHeight="14775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="2" r:id="rId1"/>
@@ -97,6 +97,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -387,12 +391,12 @@
   <dimension ref="A1:O256"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="O259" sqref="O259"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -439,7 +443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -486,7 +490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -533,7 +537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -580,7 +584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -627,7 +631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -674,7 +678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -721,7 +725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -768,7 +772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -815,7 +819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -862,7 +866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -906,10 +910,10 @@
         <v>1</v>
       </c>
       <c r="O11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -953,10 +957,10 @@
         <v>1</v>
       </c>
       <c r="O12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1003,7 +1007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1050,7 +1054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1097,7 +1101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1144,7 +1148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -1191,7 +1195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1238,7 +1242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -1285,7 +1289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -1332,7 +1336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -1379,7 +1383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -1426,7 +1430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -1473,7 +1477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -1520,7 +1524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -1567,7 +1571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -1614,7 +1618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -1661,7 +1665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -1708,7 +1712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -1755,7 +1759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -1802,7 +1806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -1849,7 +1853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -1893,10 +1897,10 @@
         <v>1</v>
       </c>
       <c r="O32" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -1943,7 +1947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -1990,7 +1994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -2037,7 +2041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -2084,7 +2088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -2131,7 +2135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -2178,7 +2182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -2225,7 +2229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -2272,7 +2276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -2319,7 +2323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -2366,7 +2370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -2413,7 +2417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -2460,7 +2464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -2507,7 +2511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -2554,7 +2558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -2601,7 +2605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -2648,7 +2652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -2695,7 +2699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -2742,7 +2746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -2789,7 +2793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -2836,7 +2840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -2883,7 +2887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -2930,7 +2934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -2977,7 +2981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>0</v>
       </c>
@@ -3024,7 +3028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>0</v>
       </c>
@@ -3071,7 +3075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -3118,7 +3122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>0</v>
       </c>
@@ -3165,7 +3169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>0</v>
       </c>
@@ -3212,7 +3216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>0</v>
       </c>
@@ -3259,7 +3263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>0</v>
       </c>
@@ -3306,7 +3310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>0</v>
       </c>
@@ -3353,7 +3357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>0</v>
       </c>
@@ -3400,7 +3404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>1</v>
       </c>
@@ -3447,7 +3451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>1</v>
       </c>
@@ -3494,7 +3498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>1</v>
       </c>
@@ -3541,7 +3545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>1</v>
       </c>
@@ -3588,7 +3592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>1</v>
       </c>
@@ -3635,7 +3639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>1</v>
       </c>
@@ -3682,7 +3686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>1</v>
       </c>
@@ -3729,7 +3733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>1</v>
       </c>
@@ -3776,7 +3780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>1</v>
       </c>
@@ -3823,7 +3827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>1</v>
       </c>
@@ -3870,7 +3874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>1</v>
       </c>
@@ -3917,7 +3921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>1</v>
       </c>
@@ -3964,7 +3968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>1</v>
       </c>
@@ -4011,7 +4015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>1</v>
       </c>
@@ -4058,7 +4062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>1</v>
       </c>
@@ -4102,10 +4106,10 @@
         <v>1</v>
       </c>
       <c r="O79" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>1</v>
       </c>
@@ -4149,10 +4153,10 @@
         <v>1</v>
       </c>
       <c r="O80" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>1</v>
       </c>
@@ -4199,7 +4203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>1</v>
       </c>
@@ -4246,7 +4250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>1</v>
       </c>
@@ -4293,7 +4297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>1</v>
       </c>
@@ -4340,7 +4344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>1</v>
       </c>
@@ -4387,7 +4391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>1</v>
       </c>
@@ -4434,7 +4438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>1</v>
       </c>
@@ -4481,7 +4485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>1</v>
       </c>
@@ -4528,7 +4532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>1</v>
       </c>
@@ -4575,7 +4579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>1</v>
       </c>
@@ -4622,7 +4626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>1</v>
       </c>
@@ -4669,7 +4673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>1</v>
       </c>
@@ -4716,7 +4720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>1</v>
       </c>
@@ -4763,7 +4767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>1</v>
       </c>
@@ -4810,7 +4814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>1</v>
       </c>
@@ -4857,7 +4861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>1</v>
       </c>
@@ -4904,7 +4908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>1</v>
       </c>
@@ -4951,7 +4955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>1</v>
       </c>
@@ -4998,7 +5002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>1</v>
       </c>
@@ -5045,7 +5049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>1</v>
       </c>
@@ -5092,7 +5096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>1</v>
       </c>
@@ -5139,7 +5143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>1</v>
       </c>
@@ -5186,7 +5190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>1</v>
       </c>
@@ -5233,7 +5237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>1</v>
       </c>
@@ -5280,7 +5284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>1</v>
       </c>
@@ -5327,7 +5331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>1</v>
       </c>
@@ -5374,7 +5378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>1</v>
       </c>
@@ -5421,7 +5425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>1</v>
       </c>
@@ -5468,7 +5472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>1</v>
       </c>
@@ -5515,7 +5519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>1</v>
       </c>
@@ -5562,7 +5566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>1</v>
       </c>
@@ -5609,7 +5613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>1</v>
       </c>
@@ -5656,7 +5660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>1</v>
       </c>
@@ -5703,7 +5707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>1</v>
       </c>
@@ -5750,7 +5754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>1</v>
       </c>
@@ -5797,7 +5801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>1</v>
       </c>
@@ -5844,7 +5848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>1</v>
       </c>
@@ -5891,7 +5895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>1</v>
       </c>
@@ -5938,7 +5942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>1</v>
       </c>
@@ -5985,7 +5989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>1</v>
       </c>
@@ -6032,7 +6036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>1</v>
       </c>
@@ -6079,7 +6083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>1</v>
       </c>
@@ -6126,7 +6130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>1</v>
       </c>
@@ -6173,7 +6177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>1</v>
       </c>
@@ -6220,7 +6224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>1</v>
       </c>
@@ -6267,7 +6271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>1</v>
       </c>
@@ -6314,7 +6318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>1</v>
       </c>
@@ -6361,7 +6365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>1</v>
       </c>
@@ -6408,7 +6412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>2</v>
       </c>
@@ -6455,7 +6459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>2</v>
       </c>
@@ -6502,7 +6506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>2</v>
       </c>
@@ -6549,7 +6553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>2</v>
       </c>
@@ -6596,7 +6600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>2</v>
       </c>
@@ -6643,7 +6647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>2</v>
       </c>
@@ -6690,7 +6694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>2</v>
       </c>
@@ -6737,7 +6741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>2</v>
       </c>
@@ -6784,7 +6788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>2</v>
       </c>
@@ -6831,7 +6835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>2</v>
       </c>
@@ -6878,7 +6882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>2</v>
       </c>
@@ -6925,7 +6929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>2</v>
       </c>
@@ -6972,7 +6976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>2</v>
       </c>
@@ -7019,7 +7023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>2</v>
       </c>
@@ -7066,7 +7070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>2</v>
       </c>
@@ -7113,7 +7117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>2</v>
       </c>
@@ -7160,7 +7164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>2</v>
       </c>
@@ -7207,7 +7211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>2</v>
       </c>
@@ -7254,7 +7258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>2</v>
       </c>
@@ -7301,7 +7305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>2</v>
       </c>
@@ -7348,7 +7352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>2</v>
       </c>
@@ -7395,7 +7399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>2</v>
       </c>
@@ -7442,7 +7446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>2</v>
       </c>
@@ -7489,7 +7493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>2</v>
       </c>
@@ -7536,7 +7540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>2</v>
       </c>
@@ -7583,7 +7587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>2</v>
       </c>
@@ -7630,7 +7634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>2</v>
       </c>
@@ -7677,7 +7681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>2</v>
       </c>
@@ -7724,7 +7728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>2</v>
       </c>
@@ -7771,7 +7775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>2</v>
       </c>
@@ -7818,7 +7822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>2</v>
       </c>
@@ -7865,7 +7869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>2</v>
       </c>
@@ -7912,7 +7916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>2</v>
       </c>
@@ -7959,7 +7963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>2</v>
       </c>
@@ -8006,7 +8010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>2</v>
       </c>
@@ -8053,7 +8057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>2</v>
       </c>
@@ -8100,7 +8104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>2</v>
       </c>
@@ -8147,7 +8151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>2</v>
       </c>
@@ -8194,7 +8198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>2</v>
       </c>
@@ -8241,7 +8245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>2</v>
       </c>
@@ -8288,7 +8292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>2</v>
       </c>
@@ -8335,7 +8339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>2</v>
       </c>
@@ -8382,7 +8386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>2</v>
       </c>
@@ -8429,7 +8433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>2</v>
       </c>
@@ -8476,7 +8480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>2</v>
       </c>
@@ -8523,7 +8527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>2</v>
       </c>
@@ -8570,7 +8574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>2</v>
       </c>
@@ -8617,7 +8621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>2</v>
       </c>
@@ -8664,7 +8668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>2</v>
       </c>
@@ -8711,7 +8715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>2</v>
       </c>
@@ -8758,7 +8762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>2</v>
       </c>
@@ -8805,7 +8809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>2</v>
       </c>
@@ -8852,7 +8856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>2</v>
       </c>
@@ -8899,7 +8903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>2</v>
       </c>
@@ -8946,7 +8950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>2</v>
       </c>
@@ -8993,7 +8997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>2</v>
       </c>
@@ -9040,7 +9044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>2</v>
       </c>
@@ -9087,7 +9091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>2</v>
       </c>
@@ -9134,7 +9138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>2</v>
       </c>
@@ -9181,7 +9185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>2</v>
       </c>
@@ -9228,7 +9232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>2</v>
       </c>
@@ -9275,7 +9279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>2</v>
       </c>
@@ -9322,7 +9326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>2</v>
       </c>
@@ -9369,7 +9373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>2</v>
       </c>
@@ -9416,7 +9420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>3</v>
       </c>
@@ -9463,7 +9467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>3</v>
       </c>
@@ -9510,7 +9514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>3</v>
       </c>
@@ -9557,7 +9561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>3</v>
       </c>
@@ -9604,7 +9608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>3</v>
       </c>
@@ -9651,7 +9655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>3</v>
       </c>
@@ -9698,7 +9702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>3</v>
       </c>
@@ -9745,7 +9749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>3</v>
       </c>
@@ -9792,7 +9796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>3</v>
       </c>
@@ -9839,7 +9843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>3</v>
       </c>
@@ -9886,7 +9890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>3</v>
       </c>
@@ -9933,7 +9937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>3</v>
       </c>
@@ -9980,7 +9984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>3</v>
       </c>
@@ -10027,7 +10031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>3</v>
       </c>
@@ -10074,7 +10078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>3</v>
       </c>
@@ -10121,7 +10125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>3</v>
       </c>
@@ -10168,7 +10172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>3</v>
       </c>
@@ -10215,7 +10219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>3</v>
       </c>
@@ -10262,7 +10266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>3</v>
       </c>
@@ -10309,7 +10313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>3</v>
       </c>
@@ -10356,7 +10360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>3</v>
       </c>
@@ -10403,7 +10407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>3</v>
       </c>
@@ -10450,7 +10454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>3</v>
       </c>
@@ -10497,7 +10501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>3</v>
       </c>
@@ -10544,7 +10548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>3</v>
       </c>
@@ -10591,7 +10595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>3</v>
       </c>
@@ -10638,7 +10642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>3</v>
       </c>
@@ -10685,7 +10689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>3</v>
       </c>
@@ -10732,7 +10736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>3</v>
       </c>
@@ -10779,7 +10783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>3</v>
       </c>
@@ -10826,7 +10830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>3</v>
       </c>
@@ -10873,7 +10877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>3</v>
       </c>
@@ -10920,7 +10924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>3</v>
       </c>
@@ -10967,7 +10971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>3</v>
       </c>
@@ -11014,7 +11018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>3</v>
       </c>
@@ -11061,7 +11065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>3</v>
       </c>
@@ -11108,7 +11112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>3</v>
       </c>
@@ -11155,7 +11159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>3</v>
       </c>
@@ -11202,7 +11206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>3</v>
       </c>
@@ -11249,7 +11253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>3</v>
       </c>
@@ -11296,7 +11300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>3</v>
       </c>
@@ -11343,7 +11347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>3</v>
       </c>
@@ -11390,7 +11394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>3</v>
       </c>
@@ -11437,7 +11441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>3</v>
       </c>
@@ -11484,7 +11488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>3</v>
       </c>
@@ -11531,7 +11535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>3</v>
       </c>
@@ -11578,7 +11582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>3</v>
       </c>
@@ -11625,7 +11629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>3</v>
       </c>
@@ -11672,7 +11676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>3</v>
       </c>
@@ -11719,7 +11723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>3</v>
       </c>
@@ -11766,7 +11770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>3</v>
       </c>
@@ -11813,7 +11817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>3</v>
       </c>
@@ -11860,7 +11864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>3</v>
       </c>
@@ -11907,7 +11911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>3</v>
       </c>
@@ -11954,7 +11958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>3</v>
       </c>
@@ -12001,7 +12005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>3</v>
       </c>
@@ -12048,7 +12052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>3</v>
       </c>
@@ -12095,7 +12099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>3</v>
       </c>
@@ -12142,7 +12146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>3</v>
       </c>
@@ -12189,7 +12193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>3</v>
       </c>
@@ -12236,7 +12240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>3</v>
       </c>
@@ -12283,7 +12287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>3</v>
       </c>
@@ -12330,7 +12334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>3</v>
       </c>
@@ -12377,7 +12381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>3</v>
       </c>
@@ -12430,17 +12434,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="8769bae9-3463-4a10-a579-45503be70aed" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8dfbc409-28c6-489e-afb0-89cc2b931f2a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -12449,7 +12442,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008CB9B2C0AF3CE84CB4250F7CDCA74D24" ma:contentTypeVersion="11" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="2f42a97d5ab0c3bd2930341450d6f06b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8dfbc409-28c6-489e-afb0-89cc2b931f2a" xmlns:ns3="8769bae9-3463-4a10-a579-45503be70aed" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbd40f3811e35be07f3bce4a65cfcd28" ns2:_="" ns3:_="">
     <xsd:import namespace="8dfbc409-28c6-489e-afb0-89cc2b931f2a"/>
@@ -12644,18 +12637,18 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AFBD511E-5C1D-4223-BB26-D22E6EE722D3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8769bae9-3463-4a10-a579-45503be70aed"/>
-    <ds:schemaRef ds:uri="8dfbc409-28c6-489e-afb0-89cc2b931f2a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="8769bae9-3463-4a10-a579-45503be70aed" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8dfbc409-28c6-489e-afb0-89cc2b931f2a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE0CAF50-C050-48AE-875E-A3DE6E22B7B5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -12663,7 +12656,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE972C20-CF49-42CA-B59D-0D1129D9A052}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12680,4 +12673,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AFBD511E-5C1D-4223-BB26-D22E6EE722D3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8769bae9-3463-4a10-a579-45503be70aed"/>
+    <ds:schemaRef ds:uri="8dfbc409-28c6-489e-afb0-89cc2b931f2a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/app/projet/src/main/resources/app/Tableur.xlsx
+++ b/app/projet/src/main/resources/app/Tableur.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://etuunivpoitiersfr-my.sharepoint.com/personal/nathanael_maitrehenry_etu_univ-poitiers_fr/Documents/Documents Fac/fac/M1/GL/Syllogism/app/projet/src/main/resources/app/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nadir\Desktop\2024_2025\S1\GL\Syllogism\app\projet\src\main\resources\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{AD612CDE-8047-4741-B781-A8C9228697DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5CCA85E1-0504-4403-8794-A6CFC0CE5FBA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC794AF-64DA-4A05-85BB-EDE5831F12EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="705" windowWidth="28020" windowHeight="14775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="2" r:id="rId1"/>
@@ -97,10 +97,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -388,15 +384,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75DF87F3-69BE-4A64-BC3C-68D3122079E6}">
-  <dimension ref="A1:O256"/>
+  <dimension ref="A1:P256"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O259" sqref="O259"/>
+      <selection activeCell="E1" sqref="E1:P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -442,8 +438,11 @@
       <c r="O1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -489,8 +488,11 @@
       <c r="O2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -536,8 +538,11 @@
       <c r="O3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -583,8 +588,11 @@
       <c r="O4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -630,8 +638,11 @@
       <c r="O5" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -677,8 +688,11 @@
       <c r="O6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -724,8 +738,11 @@
       <c r="O7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -771,8 +788,11 @@
       <c r="O8" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -818,8 +838,11 @@
       <c r="O9" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -865,8 +888,11 @@
       <c r="O10" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -910,10 +936,13 @@
         <v>1</v>
       </c>
       <c r="O11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -957,10 +986,13 @@
         <v>1</v>
       </c>
       <c r="O12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1006,8 +1038,11 @@
       <c r="O13" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1053,8 +1088,11 @@
       <c r="O14" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1100,8 +1138,11 @@
       <c r="O15" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1147,8 +1188,11 @@
       <c r="O16" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -1194,8 +1238,11 @@
       <c r="O17" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1241,8 +1288,11 @@
       <c r="O18" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -1288,8 +1338,11 @@
       <c r="O19" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -1335,8 +1388,11 @@
       <c r="O20" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -1382,8 +1438,11 @@
       <c r="O21" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -1429,8 +1488,11 @@
       <c r="O22" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -1476,8 +1538,11 @@
       <c r="O23" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -1523,8 +1588,11 @@
       <c r="O24" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -1570,8 +1638,11 @@
       <c r="O25" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -1617,8 +1688,11 @@
       <c r="O26" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -1664,8 +1738,11 @@
       <c r="O27" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -1711,8 +1788,11 @@
       <c r="O28" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -1758,8 +1838,11 @@
       <c r="O29" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -1805,8 +1888,11 @@
       <c r="O30" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -1852,8 +1938,11 @@
       <c r="O31" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -1897,10 +1986,13 @@
         <v>1</v>
       </c>
       <c r="O32" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -1946,8 +2038,11 @@
       <c r="O33" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -1993,8 +2088,11 @@
       <c r="O34" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -2040,8 +2138,11 @@
       <c r="O35" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -2087,8 +2188,11 @@
       <c r="O36" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -2134,8 +2238,11 @@
       <c r="O37" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -2181,8 +2288,11 @@
       <c r="O38" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -2228,8 +2338,11 @@
       <c r="O39" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -2275,8 +2388,11 @@
       <c r="O40" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -2322,8 +2438,11 @@
       <c r="O41" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -2369,8 +2488,11 @@
       <c r="O42" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -2416,8 +2538,11 @@
       <c r="O43" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -2463,8 +2588,11 @@
       <c r="O44" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -2510,8 +2638,11 @@
       <c r="O45" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -2557,8 +2688,11 @@
       <c r="O46" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -2604,8 +2738,11 @@
       <c r="O47" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -2651,8 +2788,11 @@
       <c r="O48" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -2698,8 +2838,11 @@
       <c r="O49" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -2745,8 +2888,11 @@
       <c r="O50" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -2792,8 +2938,11 @@
       <c r="O51" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -2839,8 +2988,11 @@
       <c r="O52" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -2886,8 +3038,11 @@
       <c r="O53" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -2933,8 +3088,11 @@
       <c r="O54" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -2980,8 +3138,11 @@
       <c r="O55" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>0</v>
       </c>
@@ -3027,8 +3188,11 @@
       <c r="O56" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>0</v>
       </c>
@@ -3074,8 +3238,11 @@
       <c r="O57" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -3121,8 +3288,11 @@
       <c r="O58" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>0</v>
       </c>
@@ -3168,8 +3338,11 @@
       <c r="O59" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>0</v>
       </c>
@@ -3215,8 +3388,11 @@
       <c r="O60" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>0</v>
       </c>
@@ -3262,8 +3438,11 @@
       <c r="O61" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>0</v>
       </c>
@@ -3309,8 +3488,11 @@
       <c r="O62" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>0</v>
       </c>
@@ -3356,8 +3538,11 @@
       <c r="O63" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>0</v>
       </c>
@@ -3403,8 +3588,11 @@
       <c r="O64" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>1</v>
       </c>
@@ -3450,8 +3638,11 @@
       <c r="O65" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>1</v>
       </c>
@@ -3497,8 +3688,11 @@
       <c r="O66" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>1</v>
       </c>
@@ -3544,8 +3738,11 @@
       <c r="O67" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>1</v>
       </c>
@@ -3591,8 +3788,11 @@
       <c r="O68" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>1</v>
       </c>
@@ -3638,8 +3838,11 @@
       <c r="O69" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P69" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>1</v>
       </c>
@@ -3685,8 +3888,11 @@
       <c r="O70" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P70" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>1</v>
       </c>
@@ -3732,8 +3938,11 @@
       <c r="O71" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>1</v>
       </c>
@@ -3779,8 +3988,11 @@
       <c r="O72" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>1</v>
       </c>
@@ -3826,8 +4038,11 @@
       <c r="O73" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>1</v>
       </c>
@@ -3873,8 +4088,11 @@
       <c r="O74" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>1</v>
       </c>
@@ -3920,8 +4138,11 @@
       <c r="O75" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>1</v>
       </c>
@@ -3967,8 +4188,11 @@
       <c r="O76" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>1</v>
       </c>
@@ -4014,8 +4238,11 @@
       <c r="O77" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>1</v>
       </c>
@@ -4061,8 +4288,11 @@
       <c r="O78" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>1</v>
       </c>
@@ -4106,10 +4336,13 @@
         <v>1</v>
       </c>
       <c r="O79" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="P79" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>1</v>
       </c>
@@ -4153,10 +4386,13 @@
         <v>1</v>
       </c>
       <c r="O80" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="P80" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>1</v>
       </c>
@@ -4202,8 +4438,11 @@
       <c r="O81" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>1</v>
       </c>
@@ -4249,8 +4488,11 @@
       <c r="O82" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>1</v>
       </c>
@@ -4296,8 +4538,11 @@
       <c r="O83" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>1</v>
       </c>
@@ -4343,8 +4588,11 @@
       <c r="O84" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>1</v>
       </c>
@@ -4390,8 +4638,11 @@
       <c r="O85" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>1</v>
       </c>
@@ -4437,8 +4688,11 @@
       <c r="O86" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P86" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>1</v>
       </c>
@@ -4484,8 +4738,11 @@
       <c r="O87" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P87" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>1</v>
       </c>
@@ -4531,8 +4788,11 @@
       <c r="O88" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P88" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>1</v>
       </c>
@@ -4578,8 +4838,11 @@
       <c r="O89" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>1</v>
       </c>
@@ -4625,8 +4888,11 @@
       <c r="O90" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>1</v>
       </c>
@@ -4672,8 +4938,11 @@
       <c r="O91" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>1</v>
       </c>
@@ -4719,8 +4988,11 @@
       <c r="O92" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>1</v>
       </c>
@@ -4766,8 +5038,11 @@
       <c r="O93" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>1</v>
       </c>
@@ -4813,8 +5088,11 @@
       <c r="O94" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>1</v>
       </c>
@@ -4860,8 +5138,11 @@
       <c r="O95" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>1</v>
       </c>
@@ -4907,8 +5188,11 @@
       <c r="O96" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>1</v>
       </c>
@@ -4954,8 +5238,11 @@
       <c r="O97" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>1</v>
       </c>
@@ -5001,8 +5288,11 @@
       <c r="O98" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>1</v>
       </c>
@@ -5048,8 +5338,11 @@
       <c r="O99" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>1</v>
       </c>
@@ -5095,8 +5388,11 @@
       <c r="O100" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>1</v>
       </c>
@@ -5142,8 +5438,11 @@
       <c r="O101" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>1</v>
       </c>
@@ -5189,8 +5488,11 @@
       <c r="O102" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>1</v>
       </c>
@@ -5236,8 +5538,11 @@
       <c r="O103" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>1</v>
       </c>
@@ -5283,8 +5588,11 @@
       <c r="O104" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>1</v>
       </c>
@@ -5330,8 +5638,11 @@
       <c r="O105" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P105" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>1</v>
       </c>
@@ -5377,8 +5688,11 @@
       <c r="O106" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P106" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>1</v>
       </c>
@@ -5424,8 +5738,11 @@
       <c r="O107" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P107" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>1</v>
       </c>
@@ -5471,8 +5788,11 @@
       <c r="O108" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P108" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>1</v>
       </c>
@@ -5518,8 +5838,11 @@
       <c r="O109" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P109" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>1</v>
       </c>
@@ -5565,8 +5888,11 @@
       <c r="O110" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P110" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>1</v>
       </c>
@@ -5612,8 +5938,11 @@
       <c r="O111" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P111" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>1</v>
       </c>
@@ -5659,8 +5988,11 @@
       <c r="O112" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P112" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>1</v>
       </c>
@@ -5706,8 +6038,11 @@
       <c r="O113" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P113" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>1</v>
       </c>
@@ -5753,8 +6088,11 @@
       <c r="O114" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P114" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>1</v>
       </c>
@@ -5800,8 +6138,11 @@
       <c r="O115" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P115" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>1</v>
       </c>
@@ -5847,8 +6188,11 @@
       <c r="O116" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P116" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>1</v>
       </c>
@@ -5894,8 +6238,11 @@
       <c r="O117" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P117" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>1</v>
       </c>
@@ -5941,8 +6288,11 @@
       <c r="O118" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P118" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>1</v>
       </c>
@@ -5988,8 +6338,11 @@
       <c r="O119" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P119" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>1</v>
       </c>
@@ -6035,8 +6388,11 @@
       <c r="O120" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P120" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>1</v>
       </c>
@@ -6082,8 +6438,11 @@
       <c r="O121" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P121" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>1</v>
       </c>
@@ -6129,8 +6488,11 @@
       <c r="O122" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P122" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>1</v>
       </c>
@@ -6176,8 +6538,11 @@
       <c r="O123" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P123" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>1</v>
       </c>
@@ -6223,8 +6588,11 @@
       <c r="O124" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P124" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>1</v>
       </c>
@@ -6270,8 +6638,11 @@
       <c r="O125" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P125" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>1</v>
       </c>
@@ -6317,8 +6688,11 @@
       <c r="O126" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P126" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>1</v>
       </c>
@@ -6364,8 +6738,11 @@
       <c r="O127" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P127" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>1</v>
       </c>
@@ -6411,8 +6788,11 @@
       <c r="O128" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P128" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>2</v>
       </c>
@@ -6458,8 +6838,11 @@
       <c r="O129" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P129" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>2</v>
       </c>
@@ -6505,8 +6888,11 @@
       <c r="O130" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P130" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>2</v>
       </c>
@@ -6552,8 +6938,11 @@
       <c r="O131" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P131" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>2</v>
       </c>
@@ -6599,8 +6988,11 @@
       <c r="O132" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P132" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>2</v>
       </c>
@@ -6646,8 +7038,11 @@
       <c r="O133" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P133" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>2</v>
       </c>
@@ -6693,8 +7088,11 @@
       <c r="O134" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P134" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>2</v>
       </c>
@@ -6740,8 +7138,11 @@
       <c r="O135" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P135" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>2</v>
       </c>
@@ -6787,8 +7188,11 @@
       <c r="O136" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P136" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>2</v>
       </c>
@@ -6834,8 +7238,11 @@
       <c r="O137" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P137" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>2</v>
       </c>
@@ -6881,8 +7288,11 @@
       <c r="O138" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P138" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>2</v>
       </c>
@@ -6928,8 +7338,11 @@
       <c r="O139" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P139" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>2</v>
       </c>
@@ -6975,8 +7388,11 @@
       <c r="O140" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P140" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>2</v>
       </c>
@@ -7022,8 +7438,11 @@
       <c r="O141" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P141" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>2</v>
       </c>
@@ -7069,8 +7488,11 @@
       <c r="O142" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P142" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>2</v>
       </c>
@@ -7116,8 +7538,11 @@
       <c r="O143" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P143" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>2</v>
       </c>
@@ -7163,8 +7588,11 @@
       <c r="O144" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P144" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
         <v>2</v>
       </c>
@@ -7210,8 +7638,11 @@
       <c r="O145" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P145" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
         <v>2</v>
       </c>
@@ -7257,8 +7688,11 @@
       <c r="O146" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P146" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>2</v>
       </c>
@@ -7304,8 +7738,11 @@
       <c r="O147" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P147" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>2</v>
       </c>
@@ -7351,8 +7788,11 @@
       <c r="O148" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P148" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
         <v>2</v>
       </c>
@@ -7398,8 +7838,11 @@
       <c r="O149" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P149" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>2</v>
       </c>
@@ -7445,8 +7888,11 @@
       <c r="O150" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P150" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
         <v>2</v>
       </c>
@@ -7492,8 +7938,11 @@
       <c r="O151" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P151" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
         <v>2</v>
       </c>
@@ -7539,8 +7988,11 @@
       <c r="O152" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P152" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
         <v>2</v>
       </c>
@@ -7586,8 +8038,11 @@
       <c r="O153" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P153" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
         <v>2</v>
       </c>
@@ -7633,8 +8088,11 @@
       <c r="O154" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P154" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
         <v>2</v>
       </c>
@@ -7680,8 +8138,11 @@
       <c r="O155" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P155" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
         <v>2</v>
       </c>
@@ -7727,8 +8188,11 @@
       <c r="O156" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P156" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
         <v>2</v>
       </c>
@@ -7774,8 +8238,11 @@
       <c r="O157" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P157" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
         <v>2</v>
       </c>
@@ -7821,8 +8288,11 @@
       <c r="O158" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P158" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
         <v>2</v>
       </c>
@@ -7868,8 +8338,11 @@
       <c r="O159" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P159" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
         <v>2</v>
       </c>
@@ -7915,8 +8388,11 @@
       <c r="O160" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P160" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
         <v>2</v>
       </c>
@@ -7962,8 +8438,11 @@
       <c r="O161" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P161" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
         <v>2</v>
       </c>
@@ -8009,8 +8488,11 @@
       <c r="O162" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P162" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
         <v>2</v>
       </c>
@@ -8056,8 +8538,11 @@
       <c r="O163" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P163" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
         <v>2</v>
       </c>
@@ -8103,8 +8588,11 @@
       <c r="O164" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P164" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
         <v>2</v>
       </c>
@@ -8150,8 +8638,11 @@
       <c r="O165" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P165" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
         <v>2</v>
       </c>
@@ -8197,8 +8688,11 @@
       <c r="O166" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P166" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
         <v>2</v>
       </c>
@@ -8244,8 +8738,11 @@
       <c r="O167" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P167" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
         <v>2</v>
       </c>
@@ -8291,8 +8788,11 @@
       <c r="O168" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P168" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
         <v>2</v>
       </c>
@@ -8338,8 +8838,11 @@
       <c r="O169" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P169" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
         <v>2</v>
       </c>
@@ -8385,8 +8888,11 @@
       <c r="O170" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P170" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
         <v>2</v>
       </c>
@@ -8432,8 +8938,11 @@
       <c r="O171" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P171" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
         <v>2</v>
       </c>
@@ -8479,8 +8988,11 @@
       <c r="O172" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P172" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
         <v>2</v>
       </c>
@@ -8526,8 +9038,11 @@
       <c r="O173" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P173" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
         <v>2</v>
       </c>
@@ -8573,8 +9088,11 @@
       <c r="O174" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P174" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
         <v>2</v>
       </c>
@@ -8620,8 +9138,11 @@
       <c r="O175" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P175" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
         <v>2</v>
       </c>
@@ -8667,8 +9188,11 @@
       <c r="O176" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P176" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
         <v>2</v>
       </c>
@@ -8714,8 +9238,11 @@
       <c r="O177" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P177" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
         <v>2</v>
       </c>
@@ -8761,8 +9288,11 @@
       <c r="O178" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P178" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
         <v>2</v>
       </c>
@@ -8808,8 +9338,11 @@
       <c r="O179" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P179" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
         <v>2</v>
       </c>
@@ -8855,8 +9388,11 @@
       <c r="O180" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P180" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
         <v>2</v>
       </c>
@@ -8902,8 +9438,11 @@
       <c r="O181" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P181" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
         <v>2</v>
       </c>
@@ -8949,8 +9488,11 @@
       <c r="O182" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P182" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
         <v>2</v>
       </c>
@@ -8996,8 +9538,11 @@
       <c r="O183" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P183" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
         <v>2</v>
       </c>
@@ -9043,8 +9588,11 @@
       <c r="O184" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P184" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
         <v>2</v>
       </c>
@@ -9090,8 +9638,11 @@
       <c r="O185" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P185" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
         <v>2</v>
       </c>
@@ -9137,8 +9688,11 @@
       <c r="O186" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P186" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
         <v>2</v>
       </c>
@@ -9184,8 +9738,11 @@
       <c r="O187" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P187" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
         <v>2</v>
       </c>
@@ -9231,8 +9788,11 @@
       <c r="O188" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P188" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
         <v>2</v>
       </c>
@@ -9278,8 +9838,11 @@
       <c r="O189" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P189" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
         <v>2</v>
       </c>
@@ -9325,8 +9888,11 @@
       <c r="O190" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P190" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
         <v>2</v>
       </c>
@@ -9372,8 +9938,11 @@
       <c r="O191" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P191" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
         <v>2</v>
       </c>
@@ -9419,8 +9988,11 @@
       <c r="O192" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P192" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
         <v>3</v>
       </c>
@@ -9466,8 +10038,11 @@
       <c r="O193" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P193" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
         <v>3</v>
       </c>
@@ -9513,8 +10088,11 @@
       <c r="O194" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P194" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
         <v>3</v>
       </c>
@@ -9560,8 +10138,11 @@
       <c r="O195" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P195" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
         <v>3</v>
       </c>
@@ -9607,8 +10188,11 @@
       <c r="O196" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P196" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
         <v>3</v>
       </c>
@@ -9654,8 +10238,11 @@
       <c r="O197" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P197" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
         <v>3</v>
       </c>
@@ -9701,8 +10288,11 @@
       <c r="O198" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P198" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
         <v>3</v>
       </c>
@@ -9748,8 +10338,11 @@
       <c r="O199" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P199" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
         <v>3</v>
       </c>
@@ -9795,8 +10388,11 @@
       <c r="O200" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P200" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
         <v>3</v>
       </c>
@@ -9842,8 +10438,11 @@
       <c r="O201" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P201" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
         <v>3</v>
       </c>
@@ -9889,8 +10488,11 @@
       <c r="O202" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P202" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
         <v>3</v>
       </c>
@@ -9936,8 +10538,11 @@
       <c r="O203" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P203" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
         <v>3</v>
       </c>
@@ -9983,8 +10588,11 @@
       <c r="O204" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P204" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
         <v>3</v>
       </c>
@@ -10030,8 +10638,11 @@
       <c r="O205" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P205" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
         <v>3</v>
       </c>
@@ -10077,8 +10688,11 @@
       <c r="O206" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P206" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
         <v>3</v>
       </c>
@@ -10124,8 +10738,11 @@
       <c r="O207" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P207" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
         <v>3</v>
       </c>
@@ -10171,8 +10788,11 @@
       <c r="O208" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P208" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A209" t="s">
         <v>3</v>
       </c>
@@ -10218,8 +10838,11 @@
       <c r="O209" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P209" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
         <v>3</v>
       </c>
@@ -10265,8 +10888,11 @@
       <c r="O210" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P210" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
         <v>3</v>
       </c>
@@ -10312,8 +10938,11 @@
       <c r="O211" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P211" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
         <v>3</v>
       </c>
@@ -10359,8 +10988,11 @@
       <c r="O212" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P212" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
         <v>3</v>
       </c>
@@ -10406,8 +11038,11 @@
       <c r="O213" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P213" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
         <v>3</v>
       </c>
@@ -10453,8 +11088,11 @@
       <c r="O214" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P214" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A215" t="s">
         <v>3</v>
       </c>
@@ -10500,8 +11138,11 @@
       <c r="O215" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P215" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
         <v>3</v>
       </c>
@@ -10547,8 +11188,11 @@
       <c r="O216" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P216" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
         <v>3</v>
       </c>
@@ -10594,8 +11238,11 @@
       <c r="O217" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P217" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
         <v>3</v>
       </c>
@@ -10641,8 +11288,11 @@
       <c r="O218" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P218" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
         <v>3</v>
       </c>
@@ -10688,8 +11338,11 @@
       <c r="O219" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P219" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A220" t="s">
         <v>3</v>
       </c>
@@ -10735,8 +11388,11 @@
       <c r="O220" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P220" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A221" t="s">
         <v>3</v>
       </c>
@@ -10782,8 +11438,11 @@
       <c r="O221" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P221" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A222" t="s">
         <v>3</v>
       </c>
@@ -10829,8 +11488,11 @@
       <c r="O222" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P222" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A223" t="s">
         <v>3</v>
       </c>
@@ -10876,8 +11538,11 @@
       <c r="O223" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P223" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
         <v>3</v>
       </c>
@@ -10923,8 +11588,11 @@
       <c r="O224" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P224" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
         <v>3</v>
       </c>
@@ -10970,8 +11638,11 @@
       <c r="O225" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P225" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
         <v>3</v>
       </c>
@@ -11017,8 +11688,11 @@
       <c r="O226" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P226" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A227" t="s">
         <v>3</v>
       </c>
@@ -11064,8 +11738,11 @@
       <c r="O227" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P227" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A228" t="s">
         <v>3</v>
       </c>
@@ -11111,8 +11788,11 @@
       <c r="O228" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P228" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A229" t="s">
         <v>3</v>
       </c>
@@ -11158,8 +11838,11 @@
       <c r="O229" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P229" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
         <v>3</v>
       </c>
@@ -11205,8 +11888,11 @@
       <c r="O230" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P230" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A231" t="s">
         <v>3</v>
       </c>
@@ -11252,8 +11938,11 @@
       <c r="O231" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P231" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A232" t="s">
         <v>3</v>
       </c>
@@ -11299,8 +11988,11 @@
       <c r="O232" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P232" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A233" t="s">
         <v>3</v>
       </c>
@@ -11346,8 +12038,11 @@
       <c r="O233" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P233" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A234" t="s">
         <v>3</v>
       </c>
@@ -11393,8 +12088,11 @@
       <c r="O234" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P234" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A235" t="s">
         <v>3</v>
       </c>
@@ -11440,8 +12138,11 @@
       <c r="O235" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P235" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A236" t="s">
         <v>3</v>
       </c>
@@ -11487,8 +12188,11 @@
       <c r="O236" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P236" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A237" t="s">
         <v>3</v>
       </c>
@@ -11534,8 +12238,11 @@
       <c r="O237" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P237" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A238" t="s">
         <v>3</v>
       </c>
@@ -11581,8 +12288,11 @@
       <c r="O238" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P238" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A239" t="s">
         <v>3</v>
       </c>
@@ -11628,8 +12338,11 @@
       <c r="O239" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P239" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A240" t="s">
         <v>3</v>
       </c>
@@ -11675,8 +12388,11 @@
       <c r="O240" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P240" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A241" t="s">
         <v>3</v>
       </c>
@@ -11722,8 +12438,11 @@
       <c r="O241" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P241" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A242" t="s">
         <v>3</v>
       </c>
@@ -11769,8 +12488,11 @@
       <c r="O242" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P242" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A243" t="s">
         <v>3</v>
       </c>
@@ -11816,8 +12538,11 @@
       <c r="O243" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P243" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A244" t="s">
         <v>3</v>
       </c>
@@ -11863,8 +12588,11 @@
       <c r="O244" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P244" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A245" t="s">
         <v>3</v>
       </c>
@@ -11910,8 +12638,11 @@
       <c r="O245" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P245" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A246" t="s">
         <v>3</v>
       </c>
@@ -11957,8 +12688,11 @@
       <c r="O246" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P246" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A247" t="s">
         <v>3</v>
       </c>
@@ -12004,8 +12738,11 @@
       <c r="O247" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P247" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A248" t="s">
         <v>3</v>
       </c>
@@ -12051,8 +12788,11 @@
       <c r="O248" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P248" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A249" t="s">
         <v>3</v>
       </c>
@@ -12098,8 +12838,11 @@
       <c r="O249" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P249" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A250" t="s">
         <v>3</v>
       </c>
@@ -12145,8 +12888,11 @@
       <c r="O250" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P250" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A251" t="s">
         <v>3</v>
       </c>
@@ -12192,8 +12938,11 @@
       <c r="O251" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P251" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A252" t="s">
         <v>3</v>
       </c>
@@ -12239,8 +12988,11 @@
       <c r="O252" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P252" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A253" t="s">
         <v>3</v>
       </c>
@@ -12286,8 +13038,11 @@
       <c r="O253" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P253" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A254" t="s">
         <v>3</v>
       </c>
@@ -12333,8 +13088,11 @@
       <c r="O254" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P254" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A255" t="s">
         <v>3</v>
       </c>
@@ -12380,8 +13138,11 @@
       <c r="O255" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P255" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A256" t="s">
         <v>3</v>
       </c>
@@ -12425,6 +13186,9 @@
         <v>0</v>
       </c>
       <c r="O256" t="b">
+        <v>0</v>
+      </c>
+      <c r="P256" t="b">
         <v>0</v>
       </c>
     </row>
@@ -12443,6 +13207,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="8769bae9-3463-4a10-a579-45503be70aed" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8dfbc409-28c6-489e-afb0-89cc2b931f2a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008CB9B2C0AF3CE84CB4250F7CDCA74D24" ma:contentTypeVersion="11" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="2f42a97d5ab0c3bd2930341450d6f06b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8dfbc409-28c6-489e-afb0-89cc2b931f2a" xmlns:ns3="8769bae9-3463-4a10-a579-45503be70aed" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbd40f3811e35be07f3bce4a65cfcd28" ns2:_="" ns3:_="">
     <xsd:import namespace="8dfbc409-28c6-489e-afb0-89cc2b931f2a"/>
@@ -12637,17 +13412,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="8769bae9-3463-4a10-a579-45503be70aed" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8dfbc409-28c6-489e-afb0-89cc2b931f2a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE0CAF50-C050-48AE-875E-A3DE6E22B7B5}">
   <ds:schemaRefs>
@@ -12657,6 +13421,17 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AFBD511E-5C1D-4223-BB26-D22E6EE722D3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8769bae9-3463-4a10-a579-45503be70aed"/>
+    <ds:schemaRef ds:uri="8dfbc409-28c6-489e-afb0-89cc2b931f2a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE972C20-CF49-42CA-B59D-0D1129D9A052}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12673,15 +13448,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AFBD511E-5C1D-4223-BB26-D22E6EE722D3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8769bae9-3463-4a10-a579-45503be70aed"/>
-    <ds:schemaRef ds:uri="8dfbc409-28c6-489e-afb0-89cc2b931f2a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>